--- a/target/test-classes/login-data.xlsx
+++ b/target/test-classes/login-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="10575" windowHeight="3675"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="11490" windowHeight="3675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>niranjangyadav124@gmail.com</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>niruct6@gmail.com</t>
+  </si>
+  <si>
+    <t>niranjan.amca.16@acharya.ac.in</t>
   </si>
 </sst>
 </file>
@@ -407,7 +410,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,17 +434,27 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2"/>
+    <row r="3" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
